--- a/Acceptance Test_Phase 2/DE/acceptance-testing-form SBS.xlsx
+++ b/Acceptance Test_Phase 2/DE/acceptance-testing-form SBS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Desktop\MTM\AT input and protocols (ph2)\DE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Acceptance Test_Phase 2\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$IV$101</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1583,7 +1583,7 @@
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1594,6 +1594,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1663,7 +1675,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1690,6 +1702,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3032,8 +3050,8 @@
   </sheetPr>
   <dimension ref="A1:IV101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3048,11 +3066,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3536,7 +3554,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="6">
@@ -3574,7 +3592,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="6">
@@ -3630,7 +3648,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="8">
@@ -3648,7 +3666,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="6">
@@ -3668,7 +3686,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="8">
@@ -3782,7 +3800,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B40" s="8">
@@ -3820,7 +3838,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="8">
@@ -3838,7 +3856,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="6">
@@ -3858,7 +3876,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="8">
@@ -3896,7 +3914,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="8">
@@ -4042,7 +4060,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B54" s="8">
@@ -4078,7 +4096,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B56" s="8">
@@ -4096,7 +4114,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="9" t="s">
         <v>141</v>
       </c>
       <c r="B57" s="6">
@@ -4186,7 +4204,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B62" s="8">
@@ -4240,7 +4258,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B65" s="6">
@@ -4258,7 +4276,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B66" s="8">
@@ -4426,7 +4444,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B75" s="6">
@@ -4444,7 +4462,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B76" s="8">
@@ -4462,7 +4480,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B77" s="6">
@@ -4482,7 +4500,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B78" s="8">
@@ -4562,7 +4580,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B82" s="8">
@@ -4580,7 +4598,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B83" s="6">
@@ -4636,7 +4654,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="10" t="s">
         <v>206</v>
       </c>
       <c r="B86" s="8">
@@ -4656,7 +4674,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="10" t="s">
         <v>209</v>
       </c>
       <c r="B87" s="6">
@@ -4858,7 +4876,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="10" t="s">
         <v>233</v>
       </c>
       <c r="B98" s="8">
@@ -4896,7 +4914,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="28.95" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="9" t="s">
         <v>238</v>
       </c>
       <c r="B100" s="8">
